--- a/01_Input/00_CO Validation/Cameroon, Republic of - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Cameroon, Republic of - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_654C6F3F109C81CED4A06B0578AE094E99EAC3E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449806EA-3AE5-4983-88BA-2E27D6102BDA}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_654C6F3F109C81CED4A06B0578AE094E99EAC3E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958B4CA8-B015-4849-BB1A-294043A09927}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="117">
   <si>
     <t>Project ID</t>
   </si>
@@ -114,7 +117,7 @@
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>KW</t>
+    <t>MW</t>
   </si>
   <si>
     <t>the health centers of Limani, Moskota, Kolofata and the district medical center of Amchide have benefited from the installation of solar kits to maintain the level of service and patient monitoring. These health center cover more than 10000 inhabitants. It was installed for the 5 health center, 10KW of solar energy</t>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Allemagne  </t>
-  </si>
-  <si>
-    <t>MW</t>
   </si>
   <si>
     <t>Several administrations, security and justice services have been equipped with solar energy kits to power all their electrical circuits that were not supplied at the time. these are the sub-prefectures, police station, gendarmerie, customary courts, forestry posts, delegations of agriculture, livestock... this facilitates access to public services for more than 50,000 people in the different localities of Mozogo , Waza, Mora, Blangoua, Amchide, Kolofata. These installations have a total power of 63 KW</t>
@@ -196,7 +196,13 @@
     <t>UNDP CAMEROUN GOES GREEN: SUPPORT FOR THE ACHIEVEMENT OF SUSTAINABLE MOONSHOT OBJECTIVES</t>
   </si>
   <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
     <t>number of offices switching to led</t>
+  </si>
+  <si>
+    <t>1 building</t>
   </si>
   <si>
     <t>All (100%) the incandescents bulbs (offices, toilets, corridors, warehouse and building exteriors) of the main building of UNDP Cameroon.
@@ -219,6 +225,9 @@
 by the national company
 (ENEO) thanks to the
 installation of solar panels</t>
+  </si>
+  <si>
+    <t>2 building</t>
   </si>
   <si>
     <t>We had many zoom meetings with the OIMT Green
@@ -308,6 +317,9 @@
     <t>$40 000,00</t>
   </si>
   <si>
+    <t>KW</t>
+  </si>
+  <si>
     <t>$430 000,00</t>
   </si>
   <si>
@@ -517,7 +529,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +578,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -627,12 +645,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -671,6 +799,47 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A16C56-5197-4C70-BCCF-E59A0D701BE3}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,7 +1173,7 @@
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="46.5703125" customWidth="1"/>
+    <col min="9" max="9" width="62.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="47.5703125" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" customWidth="1"/>
@@ -1071,16 +1240,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="61.5">
-      <c r="A2" s="7">
+      <c r="A2" s="18">
         <v>118154</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="21">
         <v>1260000</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1108,35 +1277,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" ht="72.75">
-      <c r="A3" s="12">
-        <v>118154</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="12">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="51">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="21">
         <v>40000</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <v>0.05</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -1145,21 +1308,12 @@
       <c r="P3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="122.25">
-      <c r="A4" s="7">
-        <v>118154</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7">
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="102">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21">
         <v>430000</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1181,17 +1335,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="61.5">
-      <c r="A5" s="7">
-        <v>118154</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7">
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="51">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21">
         <v>150000</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1213,35 +1361,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="14" customFormat="1" ht="110.25">
-      <c r="A6" s="12">
-        <v>118154</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="89.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21">
         <v>200000</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -1250,230 +1392,176 @@
       <c r="P6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" s="14" customFormat="1" ht="61.5">
-      <c r="A7" s="12">
-        <v>118154</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="51">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21">
+        <v>7000</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="25.5">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="21">
+        <v>120000</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="208.5">
+      <c r="A9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
-        <v>7000</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" ht="36.75">
-      <c r="A8" s="12">
-        <v>118154</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D9" s="7">
+        <v>34255</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>70</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="216">
+      <c r="A10" s="18">
+        <v>130710</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
-        <v>120000</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" s="14" customFormat="1" ht="208.5">
-      <c r="A9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12">
-        <v>34255</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>70</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" s="14" customFormat="1" ht="256.5">
-      <c r="A10" s="12">
-        <v>130710</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="7">
+        <v>16839</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12">
-        <v>16839</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" ht="409.6">
-      <c r="A11" s="12">
-        <v>130710</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="409.6">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="21">
+        <v>57030</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12">
-        <v>57030</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" ht="233.25">
-      <c r="A12" s="12">
-        <v>130710</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="203.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="33">
         <v>691</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="7">
         <v>124</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>188</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1495,16 +1583,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A547B403-9524-4A67-A0AB-97A27AA77374}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{FC7C051E-E24C-45D6-BE78-C89DF138FAEC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0A77659B-5F52-4810-AF65-9662545CB1D0}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0AB08C00-DEB4-4DFC-882E-C5EA2473B1BF}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{862CFA62-C8BD-43D8-B974-D772B03B815D}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{8832BB69-3043-49C2-93BB-027DC99A7803}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{A86CD70F-BD68-4B24-9468-16E87E4C6BD0}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{414ABE82-9F12-4F1F-8B95-426E879DE858}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{D5D6AE8D-AF64-480C-AB65-C0BA1673BD19}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{CB0A54C6-EF70-4B4D-81F4-A2254A81225F}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{BD799CA2-FBDC-4CE9-A3B4-2E2C67C8CF2F}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{414ABE82-9F12-4F1F-8B95-426E879DE858}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{D5D6AE8D-AF64-480C-AB65-C0BA1673BD19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1612,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
@@ -1650,13 +1730,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G3" s="12">
         <v>0</v>
@@ -1691,7 +1771,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -1723,7 +1803,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>36</v>
@@ -1755,13 +1835,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
@@ -1770,7 +1850,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>35</v>
@@ -1796,13 +1876,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -1811,10 +1891,10 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1833,13 +1913,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -1848,10 +1928,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1861,22 +1941,22 @@
     </row>
     <row r="9" spans="1:19" s="14" customFormat="1" ht="216">
       <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
@@ -1885,10 +1965,10 @@
         <v>70</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1901,13 +1981,13 @@
         <v>130710</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>26</v>
@@ -1920,10 +2000,10 @@
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="15"/>
       <c r="O10" s="6"/>
@@ -1937,29 +2017,29 @@
         <v>130710</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M11" s="15"/>
       <c r="O11" s="6"/>
@@ -1973,7 +2053,7 @@
         <v>130710</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>20</v>
@@ -1985,19 +2065,19 @@
         <v>36</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" s="12">
         <v>188</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="15"/>
       <c r="O12" s="6"/>
@@ -2116,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
@@ -2148,13 +2228,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2180,7 +2260,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -2212,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>36</v>
@@ -2244,13 +2324,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2259,7 +2339,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>35</v>
@@ -2276,13 +2356,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2291,10 +2371,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="38.25">
@@ -2308,13 +2388,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2323,56 +2403,56 @@
         <v>30</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="216">
       <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="228.75">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>26</v>
@@ -2384,53 +2464,53 @@
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="409.6">
       <c r="A11" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="241.5">
       <c r="A12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>20</v>
@@ -2442,19 +2522,19 @@
         <v>36</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2500,160 +2580,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
-        <v>88</v>
+      <c r="A2" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
-        <v>93</v>
+      <c r="A5" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>100</v>
+      <c r="A10" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="37"/>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
-        <v>104</v>
+      <c r="A12" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
